--- a/biology/Zoologie/Adelpha_epione/Adelpha_epione.xlsx
+++ b/biology/Zoologie/Adelpha_epione/Adelpha_epione.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adelpha epione est une espèce de lépidoptères de la famille des Nymphalidae, sous-famille des Limenitidinae, tribu des Limenitidini et du genre Adelpha.
 </t>
@@ -511,18 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Espèce décrite par l'entomologiste français Jean-Baptiste Godart en 1824 sous le protonyme de Nymphalis epione. Elle est, depuis, reclassée dans le genre Adelpha ; le nom actuel est Adelpha epione[1] 
-Localité type
-Brésil.
-Taxinomie
-Il existe deux sous-espèces :
-Adelpha epione epione (Godart). Localité type : Brésil.
-Synonyme Adelpha epione maina (Martin, 1923)
-Adelpha epione agilla (Frushtorfer, 1907)[2]. Localité type : Colombie.
-Noms vernaculaires
-Adelpha epionese nomme White-barred Sister en anglais[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèce décrite par l'entomologiste français Jean-Baptiste Godart en 1824 sous le protonyme de Nymphalis epione. Elle est, depuis, reclassée dans le genre Adelpha ; le nom actuel est Adelpha epione 
 </t>
         </is>
       </c>
@@ -548,14 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adelpha epione est un papillon d'une envergure de 45 mm à 50 mm à bord externe des ailes antérieures concave[4]. Le dessus est marron avec aux ailes antérieures une bande blanche allant du milieu du bord costal à l'angle interne.
-Le revers est plus clair, à bandes marron roux et nacrées avec la même barre blanche aux ailes antérieures que sur le dessus.
-</t>
+          <t>Localité type</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Brésil.</t>
         </is>
       </c>
     </row>
@@ -580,13 +589,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sa biologie n'est pas connue[3].
-</t>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Il existe deux sous-espèces :
+Adelpha epione epione (Godart). Localité type : Brésil.
+Synonyme Adelpha epione maina (Martin, 1923)
+Adelpha epione agilla (Frushtorfer, 1907). Localité type : Colombie.</t>
         </is>
       </c>
     </row>
@@ -611,16 +628,192 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha epionese nomme White-barred Sister en anglais
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adelpha_epione</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_epione</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha epione est un papillon d'une envergure de 45 mm à 50 mm à bord externe des ailes antérieures concave. Le dessus est marron avec aux ailes antérieures une bande blanche allant du milieu du bord costal à l'angle interne.
+Le revers est plus clair, à bandes marron roux et nacrées avec la même barre blanche aux ailes antérieures que sur le dessus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Adelpha_epione</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_epione</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa biologie n'est pas connue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Adelpha_epione</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_epione</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha epione est présent dans les Andes, en Colombie, en Équateur, en Bolivie, au Brésil et au Pérou[5],[3].
-Biotope
-Il réside dans la forêt en montagne entre 400 et 1 200 mètres[3].
-Protection
-Pas de statut de protection particulier.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha epione est présent dans les Andes, en Colombie, en Équateur, en Bolivie, au Brésil et au Pérou,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Adelpha_epione</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_epione</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt en montagne entre 400 et 1 200 mètres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Adelpha_epione</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_epione</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
